--- a/EC/Train Runs and Enforcements 2016-06-27.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -1762,9 +1762,6 @@
     <t>Premature downgrade at EC1981RH 191-1T 1N</t>
   </si>
   <si>
-    <t>Poor GPS signal at DUS</t>
-  </si>
-  <si>
     <t>Cut out button not pressed at end of run</t>
   </si>
   <si>
@@ -1778,6 +1775,9 @@
   </si>
   <si>
     <t>Routing at 40th 4S</t>
+  </si>
+  <si>
+    <t>Poor GPS signal at DIA</t>
   </si>
 </sst>
 </file>
@@ -2322,6 +2322,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2352,59 +2374,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_XINGS" xfId="1"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="12">
     <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2435,99 +2417,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -2543,160 +2432,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2741,126 +2476,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3167,8 +2782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM206"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V34" sqref="V34"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R100" sqref="R100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3228,18 +2843,18 @@
       <c r="F2" s="13"/>
       <c r="G2" s="32"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="80">
+      <c r="I2" s="90">
         <f>Variables!A2</f>
         <v>42548</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="91"/>
       <c r="K2" s="50"/>
       <c r="L2" s="50"/>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="84"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="94"/>
       <c r="P2" s="4"/>
       <c r="V2" s="40"/>
       <c r="W2" s="40"/>
@@ -3256,10 +2871,10 @@
       <c r="F3" s="13"/>
       <c r="G3" s="32"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="86"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="71"/>
       <c r="L3" s="71"/>
       <c r="M3" s="8" t="s">
@@ -3509,25 +3124,25 @@
       <c r="AC10" s="41"/>
     </row>
     <row r="11" spans="1:91" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="79" t="str">
+      <c r="A11" s="89" t="str">
         <f>"Eagle P3 System Performance - "&amp;TEXT(Variables!A2,"yyyy-mm-dd")</f>
         <v>Eagle P3 System Performance - 2016-06-27</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
     </row>
     <row r="12" spans="1:91" s="10" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
@@ -3681,7 +3296,7 @@
       <c r="CM12" s="9"/>
     </row>
     <row r="13" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="79" t="s">
         <v>252</v>
       </c>
       <c r="B13" s="43">
@@ -3777,7 +3392,7 @@
       </c>
     </row>
     <row r="14" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="79" t="s">
         <v>339</v>
       </c>
       <c r="B14" s="43">
@@ -3873,7 +3488,7 @@
       </c>
     </row>
     <row r="15" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="79" t="s">
         <v>341</v>
       </c>
       <c r="B15" s="43">
@@ -3969,7 +3584,7 @@
       </c>
     </row>
     <row r="16" spans="1:91" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="79" t="s">
         <v>344</v>
       </c>
       <c r="B16" s="43">
@@ -4065,7 +3680,7 @@
       </c>
     </row>
     <row r="17" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="79" t="s">
         <v>253</v>
       </c>
       <c r="B17" s="43">
@@ -4161,7 +3776,7 @@
       </c>
     </row>
     <row r="18" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="79" t="s">
         <v>256</v>
       </c>
       <c r="B18" s="43">
@@ -4257,7 +3872,7 @@
       </c>
     </row>
     <row r="19" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="79" t="s">
         <v>348</v>
       </c>
       <c r="B19" s="43">
@@ -4355,7 +3970,7 @@
       </c>
     </row>
     <row r="20" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="79" t="s">
         <v>350</v>
       </c>
       <c r="B20" s="43">
@@ -4451,7 +4066,7 @@
       </c>
     </row>
     <row r="21" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="79" t="s">
         <v>352</v>
       </c>
       <c r="B21" s="43">
@@ -4547,7 +4162,7 @@
       </c>
     </row>
     <row r="22" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="79" t="s">
         <v>260</v>
       </c>
       <c r="B22" s="43">
@@ -4643,7 +4258,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="79" t="s">
         <v>255</v>
       </c>
       <c r="B23" s="43">
@@ -4739,7 +4354,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="79" t="s">
         <v>356</v>
       </c>
       <c r="B24" s="43">
@@ -4835,7 +4450,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="79" t="s">
         <v>358</v>
       </c>
       <c r="B25" s="43">
@@ -4931,7 +4546,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="89" t="s">
+      <c r="A26" s="79" t="s">
         <v>360</v>
       </c>
       <c r="B26" s="43">
@@ -5027,7 +4642,7 @@
       </c>
     </row>
     <row r="27" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="79" t="s">
         <v>259</v>
       </c>
       <c r="B27" s="43">
@@ -5123,7 +4738,7 @@
       </c>
     </row>
     <row r="28" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="79" t="s">
         <v>265</v>
       </c>
       <c r="B28" s="43">
@@ -5219,7 +4834,7 @@
       </c>
     </row>
     <row r="29" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="89" t="s">
+      <c r="A29" s="79" t="s">
         <v>363</v>
       </c>
       <c r="B29" s="43">
@@ -5315,7 +4930,7 @@
       </c>
     </row>
     <row r="30" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="79" t="s">
         <v>364</v>
       </c>
       <c r="B30" s="43">
@@ -5411,7 +5026,7 @@
       </c>
     </row>
     <row r="31" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="79" t="s">
         <v>263</v>
       </c>
       <c r="B31" s="43">
@@ -5507,7 +5122,7 @@
       </c>
     </row>
     <row r="32" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="79" t="s">
         <v>268</v>
       </c>
       <c r="B32" s="43">
@@ -5603,7 +5218,7 @@
       </c>
     </row>
     <row r="33" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
+      <c r="A33" s="79" t="s">
         <v>366</v>
       </c>
       <c r="B33" s="43">
@@ -5699,7 +5314,7 @@
       </c>
     </row>
     <row r="34" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="79" t="s">
         <v>367</v>
       </c>
       <c r="B34" s="43">
@@ -5795,7 +5410,7 @@
       </c>
     </row>
     <row r="35" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="79" t="s">
         <v>369</v>
       </c>
       <c r="B35" s="43">
@@ -5891,7 +5506,7 @@
       </c>
     </row>
     <row r="36" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="89" t="s">
+      <c r="A36" s="79" t="s">
         <v>370</v>
       </c>
       <c r="B36" s="43">
@@ -5987,7 +5602,7 @@
       </c>
     </row>
     <row r="37" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="89" t="s">
+      <c r="A37" s="79" t="s">
         <v>371</v>
       </c>
       <c r="B37" s="43">
@@ -6083,7 +5698,7 @@
       </c>
     </row>
     <row r="38" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="89" t="s">
+      <c r="A38" s="79" t="s">
         <v>372</v>
       </c>
       <c r="B38" s="43">
@@ -6179,7 +5794,7 @@
       </c>
     </row>
     <row r="39" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="90" t="s">
+      <c r="A39" s="80" t="s">
         <v>267</v>
       </c>
       <c r="B39" s="43">
@@ -6275,7 +5890,7 @@
       </c>
     </row>
     <row r="40" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="89" t="s">
+      <c r="A40" s="79" t="s">
         <v>273</v>
       </c>
       <c r="B40" s="43">
@@ -6371,7 +5986,7 @@
       </c>
     </row>
     <row r="41" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="79" t="s">
         <v>269</v>
       </c>
       <c r="B41" s="43">
@@ -6467,7 +6082,7 @@
       </c>
     </row>
     <row r="42" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="79" t="s">
         <v>275</v>
       </c>
       <c r="B42" s="43">
@@ -6563,7 +6178,7 @@
       </c>
     </row>
     <row r="43" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="89" t="s">
+      <c r="A43" s="79" t="s">
         <v>378</v>
       </c>
       <c r="B43" s="43">
@@ -6659,7 +6274,7 @@
       </c>
     </row>
     <row r="44" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="89" t="s">
+      <c r="A44" s="79" t="s">
         <v>380</v>
       </c>
       <c r="B44" s="43">
@@ -6755,7 +6370,7 @@
       </c>
     </row>
     <row r="45" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="89" t="s">
+      <c r="A45" s="79" t="s">
         <v>270</v>
       </c>
       <c r="B45" s="43">
@@ -6851,7 +6466,7 @@
       </c>
     </row>
     <row r="46" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="79" t="s">
         <v>278</v>
       </c>
       <c r="B46" s="43">
@@ -6946,7 +6561,7 @@
       </c>
     </row>
     <row r="47" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="89" t="s">
+      <c r="A47" s="79" t="s">
         <v>385</v>
       </c>
       <c r="B47" s="43">
@@ -7042,7 +6657,7 @@
       </c>
     </row>
     <row r="48" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="89" t="s">
+      <c r="A48" s="79" t="s">
         <v>387</v>
       </c>
       <c r="B48" s="43">
@@ -7138,7 +6753,7 @@
       </c>
     </row>
     <row r="49" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="89" t="s">
+      <c r="A49" s="79" t="s">
         <v>389</v>
       </c>
       <c r="B49" s="43">
@@ -7234,7 +6849,7 @@
       </c>
     </row>
     <row r="50" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="89" t="s">
+      <c r="A50" s="79" t="s">
         <v>279</v>
       </c>
       <c r="B50" s="43">
@@ -7330,7 +6945,7 @@
       </c>
     </row>
     <row r="51" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="79" t="s">
         <v>276</v>
       </c>
       <c r="B51" s="43">
@@ -7428,7 +7043,7 @@
       </c>
     </row>
     <row r="52" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="89" t="s">
+      <c r="A52" s="79" t="s">
         <v>394</v>
       </c>
       <c r="B52" s="43">
@@ -7524,7 +7139,7 @@
       </c>
     </row>
     <row r="53" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="89" t="s">
+      <c r="A53" s="79" t="s">
         <v>396</v>
       </c>
       <c r="B53" s="43">
@@ -7620,7 +7235,7 @@
       </c>
     </row>
     <row r="54" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="89" t="s">
+      <c r="A54" s="79" t="s">
         <v>398</v>
       </c>
       <c r="B54" s="43">
@@ -7716,7 +7331,7 @@
       </c>
     </row>
     <row r="55" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="89" t="s">
+      <c r="A55" s="79" t="s">
         <v>277</v>
       </c>
       <c r="B55" s="43">
@@ -7812,7 +7427,7 @@
       </c>
     </row>
     <row r="56" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="90" t="s">
+      <c r="A56" s="80" t="s">
         <v>401</v>
       </c>
       <c r="B56" s="43">
@@ -7862,7 +7477,7 @@
       </c>
       <c r="Q56" s="44"/>
       <c r="R56" s="44" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="S56" s="70">
         <f t="shared" si="11"/>
@@ -7910,7 +7525,7 @@
       </c>
     </row>
     <row r="57" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="89" t="s">
+      <c r="A57" s="79" t="s">
         <v>401</v>
       </c>
       <c r="B57" s="43">
@@ -8003,7 +7618,7 @@
       </c>
     </row>
     <row r="58" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="89" t="s">
+      <c r="A58" s="79" t="s">
         <v>404</v>
       </c>
       <c r="B58" s="43">
@@ -8099,7 +7714,7 @@
       </c>
     </row>
     <row r="59" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="89" t="s">
+      <c r="A59" s="79" t="s">
         <v>406</v>
       </c>
       <c r="B59" s="43">
@@ -8195,7 +7810,7 @@
       </c>
     </row>
     <row r="60" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="89" t="s">
+      <c r="A60" s="79" t="s">
         <v>407</v>
       </c>
       <c r="B60" s="43">
@@ -8291,7 +7906,7 @@
       </c>
     </row>
     <row r="61" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="89" t="s">
+      <c r="A61" s="79" t="s">
         <v>408</v>
       </c>
       <c r="B61" s="43">
@@ -8387,7 +8002,7 @@
       </c>
     </row>
     <row r="62" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="89" t="s">
+      <c r="A62" s="79" t="s">
         <v>410</v>
       </c>
       <c r="B62" s="43">
@@ -8483,7 +8098,7 @@
       </c>
     </row>
     <row r="63" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="89" t="s">
+      <c r="A63" s="79" t="s">
         <v>411</v>
       </c>
       <c r="B63" s="43">
@@ -8579,7 +8194,7 @@
       </c>
     </row>
     <row r="64" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="89" t="s">
+      <c r="A64" s="79" t="s">
         <v>281</v>
       </c>
       <c r="B64" s="43">
@@ -8675,7 +8290,7 @@
       </c>
     </row>
     <row r="65" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="90" t="s">
+      <c r="A65" s="80" t="s">
         <v>282</v>
       </c>
       <c r="B65" s="43">
@@ -8725,7 +8340,7 @@
       <c r="P65" s="12"/>
       <c r="Q65" s="44"/>
       <c r="R65" s="44" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="S65" s="70">
         <f t="shared" si="11"/>
@@ -8772,7 +8387,7 @@
       </c>
     </row>
     <row r="66" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="89" t="s">
+      <c r="A66" s="79" t="s">
         <v>415</v>
       </c>
       <c r="B66" s="43">
@@ -8868,7 +8483,7 @@
       </c>
     </row>
     <row r="67" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="89" t="s">
+      <c r="A67" s="79" t="s">
         <v>286</v>
       </c>
       <c r="B67" s="43">
@@ -8964,7 +8579,7 @@
       </c>
     </row>
     <row r="68" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="89" t="s">
+      <c r="A68" s="79" t="s">
         <v>417</v>
       </c>
       <c r="B68" s="43">
@@ -9060,7 +8675,7 @@
       </c>
     </row>
     <row r="69" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="79" t="s">
         <v>283</v>
       </c>
       <c r="B69" s="43">
@@ -9156,7 +8771,7 @@
       </c>
     </row>
     <row r="70" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="89" t="s">
+      <c r="A70" s="79" t="s">
         <v>418</v>
       </c>
       <c r="B70" s="43">
@@ -9252,7 +8867,7 @@
       </c>
     </row>
     <row r="71" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="89" t="s">
+      <c r="A71" s="79" t="s">
         <v>287</v>
       </c>
       <c r="B71" s="43">
@@ -9348,7 +8963,7 @@
       </c>
     </row>
     <row r="72" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="89" t="s">
+      <c r="A72" s="79" t="s">
         <v>419</v>
       </c>
       <c r="B72" s="43">
@@ -9444,7 +9059,7 @@
       </c>
     </row>
     <row r="73" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="89" t="s">
+      <c r="A73" s="79" t="s">
         <v>421</v>
       </c>
       <c r="B73" s="43">
@@ -9540,7 +9155,7 @@
       </c>
     </row>
     <row r="74" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="89" t="s">
+      <c r="A74" s="79" t="s">
         <v>422</v>
       </c>
       <c r="B74" s="43">
@@ -9636,7 +9251,7 @@
       </c>
     </row>
     <row r="75" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="89" t="s">
+      <c r="A75" s="79" t="s">
         <v>423</v>
       </c>
       <c r="B75" s="43">
@@ -9734,7 +9349,7 @@
       </c>
     </row>
     <row r="76" spans="1:29" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="89" t="s">
+      <c r="A76" s="79" t="s">
         <v>284</v>
       </c>
       <c r="B76" s="43">
@@ -9830,7 +9445,7 @@
       </c>
     </row>
     <row r="77" spans="1:29" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="90" t="s">
+      <c r="A77" s="80" t="s">
         <v>291</v>
       </c>
       <c r="B77" s="43">
@@ -9926,7 +9541,7 @@
       </c>
     </row>
     <row r="78" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="89" t="s">
+      <c r="A78" s="79" t="s">
         <v>426</v>
       </c>
       <c r="B78" s="43">
@@ -10022,7 +9637,7 @@
       </c>
     </row>
     <row r="79" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="89" t="s">
+      <c r="A79" s="79" t="s">
         <v>292</v>
       </c>
       <c r="B79" s="43">
@@ -10118,7 +9733,7 @@
       </c>
     </row>
     <row r="80" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="89" t="s">
+      <c r="A80" s="79" t="s">
         <v>288</v>
       </c>
       <c r="B80" s="43">
@@ -10214,7 +9829,7 @@
       </c>
     </row>
     <row r="81" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="89" t="s">
+      <c r="A81" s="79" t="s">
         <v>427</v>
       </c>
       <c r="B81" s="43">
@@ -10310,7 +9925,7 @@
       </c>
     </row>
     <row r="82" spans="1:29" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="89" t="s">
+      <c r="A82" s="79" t="s">
         <v>429</v>
       </c>
       <c r="B82" s="43">
@@ -10406,7 +10021,7 @@
       </c>
     </row>
     <row r="83" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="89" t="s">
+      <c r="A83" s="79" t="s">
         <v>431</v>
       </c>
       <c r="B83" s="43">
@@ -10502,7 +10117,7 @@
       </c>
     </row>
     <row r="84" spans="1:29" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="89" t="s">
+      <c r="A84" s="79" t="s">
         <v>433</v>
       </c>
       <c r="B84" s="43">
@@ -10598,7 +10213,7 @@
       </c>
     </row>
     <row r="85" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="89" t="s">
+      <c r="A85" s="79" t="s">
         <v>434</v>
       </c>
       <c r="B85" s="43">
@@ -10694,7 +10309,7 @@
       </c>
     </row>
     <row r="86" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="89" t="s">
+      <c r="A86" s="79" t="s">
         <v>289</v>
       </c>
       <c r="B86" s="43">
@@ -10790,7 +10405,7 @@
       </c>
     </row>
     <row r="87" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="89" t="s">
+      <c r="A87" s="79" t="s">
         <v>289</v>
       </c>
       <c r="B87" s="43">
@@ -10886,7 +10501,7 @@
       </c>
     </row>
     <row r="88" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="89" t="s">
+      <c r="A88" s="79" t="s">
         <v>297</v>
       </c>
       <c r="B88" s="43">
@@ -10982,7 +10597,7 @@
       </c>
     </row>
     <row r="89" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="89" t="s">
+      <c r="A89" s="79" t="s">
         <v>293</v>
       </c>
       <c r="B89" s="43">
@@ -11077,7 +10692,7 @@
       </c>
     </row>
     <row r="90" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="89" t="s">
+      <c r="A90" s="79" t="s">
         <v>298</v>
       </c>
       <c r="B90" s="43">
@@ -11173,7 +10788,7 @@
       </c>
     </row>
     <row r="91" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="89" t="s">
+      <c r="A91" s="79" t="s">
         <v>439</v>
       </c>
       <c r="B91" s="43">
@@ -11269,7 +10884,7 @@
       </c>
     </row>
     <row r="92" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="89" t="s">
+      <c r="A92" s="79" t="s">
         <v>441</v>
       </c>
       <c r="B92" s="43">
@@ -11365,7 +10980,7 @@
       </c>
     </row>
     <row r="93" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="89" t="s">
+      <c r="A93" s="79" t="s">
         <v>294</v>
       </c>
       <c r="B93" s="43">
@@ -11461,7 +11076,7 @@
       </c>
     </row>
     <row r="94" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="89" t="s">
+      <c r="A94" s="79" t="s">
         <v>301</v>
       </c>
       <c r="B94" s="43">
@@ -11557,7 +11172,7 @@
       </c>
     </row>
     <row r="95" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="89" t="s">
+      <c r="A95" s="79" t="s">
         <v>296</v>
       </c>
       <c r="B95" s="43">
@@ -11653,7 +11268,7 @@
       </c>
     </row>
     <row r="96" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="89" t="s">
+      <c r="A96" s="79" t="s">
         <v>445</v>
       </c>
       <c r="B96" s="43">
@@ -11749,7 +11364,7 @@
       </c>
     </row>
     <row r="97" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="89" t="s">
+      <c r="A97" s="79" t="s">
         <v>448</v>
       </c>
       <c r="B97" s="43">
@@ -11845,7 +11460,7 @@
       </c>
     </row>
     <row r="98" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="89" t="s">
+      <c r="A98" s="79" t="s">
         <v>304</v>
       </c>
       <c r="B98" s="43">
@@ -11941,7 +11556,7 @@
       </c>
     </row>
     <row r="99" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="89" t="s">
+      <c r="A99" s="79" t="s">
         <v>295</v>
       </c>
       <c r="B99" s="43">
@@ -12037,7 +11652,7 @@
       </c>
     </row>
     <row r="100" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="89" t="s">
+      <c r="A100" s="79" t="s">
         <v>451</v>
       </c>
       <c r="B100" s="43">
@@ -12087,7 +11702,7 @@
       </c>
       <c r="Q100" s="44"/>
       <c r="R100" s="44" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="S100" s="70">
         <f t="shared" si="23"/>
@@ -12135,7 +11750,7 @@
       </c>
     </row>
     <row r="101" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="89" t="s">
+      <c r="A101" s="79" t="s">
         <v>300</v>
       </c>
       <c r="B101" s="43">
@@ -12231,7 +11846,7 @@
       </c>
     </row>
     <row r="102" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="89" t="s">
+      <c r="A102" s="79" t="s">
         <v>307</v>
       </c>
       <c r="B102" s="43">
@@ -12327,7 +11942,7 @@
       </c>
     </row>
     <row r="103" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="89" t="s">
+      <c r="A103" s="79" t="s">
         <v>452</v>
       </c>
       <c r="B103" s="43">
@@ -12425,7 +12040,7 @@
       </c>
     </row>
     <row r="104" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="89" t="s">
+      <c r="A104" s="79" t="s">
         <v>452</v>
       </c>
       <c r="B104" s="43">
@@ -12518,7 +12133,7 @@
       </c>
     </row>
     <row r="105" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="89" t="s">
+      <c r="A105" s="79" t="s">
         <v>455</v>
       </c>
       <c r="B105" s="43">
@@ -12614,7 +12229,7 @@
       </c>
     </row>
     <row r="106" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="89" t="s">
+      <c r="A106" s="79" t="s">
         <v>302</v>
       </c>
       <c r="B106" s="43">
@@ -12710,7 +12325,7 @@
       </c>
     </row>
     <row r="107" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="89" t="s">
+      <c r="A107" s="79" t="s">
         <v>456</v>
       </c>
       <c r="B107" s="43">
@@ -12806,7 +12421,7 @@
       </c>
     </row>
     <row r="108" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="89" t="s">
+      <c r="A108" s="79" t="s">
         <v>308</v>
       </c>
       <c r="B108" s="43">
@@ -12902,7 +12517,7 @@
       </c>
     </row>
     <row r="109" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="89" t="s">
+      <c r="A109" s="79" t="s">
         <v>306</v>
       </c>
       <c r="B109" s="43">
@@ -12998,7 +12613,7 @@
       </c>
     </row>
     <row r="110" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="89" t="s">
+      <c r="A110" s="79" t="s">
         <v>460</v>
       </c>
       <c r="B110" s="43">
@@ -13094,7 +12709,7 @@
       </c>
     </row>
     <row r="111" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="89" t="s">
+      <c r="A111" s="79" t="s">
         <v>461</v>
       </c>
       <c r="B111" s="43">
@@ -13190,7 +12805,7 @@
       </c>
     </row>
     <row r="112" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="89" t="s">
+      <c r="A112" s="79" t="s">
         <v>463</v>
       </c>
       <c r="B112" s="43">
@@ -13286,7 +12901,7 @@
       </c>
     </row>
     <row r="113" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="89" t="s">
+      <c r="A113" s="79" t="s">
         <v>465</v>
       </c>
       <c r="B113" s="43">
@@ -13382,7 +12997,7 @@
       </c>
     </row>
     <row r="114" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="89" t="s">
+      <c r="A114" s="79" t="s">
         <v>466</v>
       </c>
       <c r="B114" s="43">
@@ -13478,7 +13093,7 @@
       </c>
     </row>
     <row r="115" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="89" t="s">
+      <c r="A115" s="79" t="s">
         <v>468</v>
       </c>
       <c r="B115" s="43">
@@ -13574,7 +13189,7 @@
       </c>
     </row>
     <row r="116" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="89" t="s">
+      <c r="A116" s="79" t="s">
         <v>470</v>
       </c>
       <c r="B116" s="43">
@@ -13670,7 +13285,7 @@
       </c>
     </row>
     <row r="117" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="89" t="s">
+      <c r="A117" s="79" t="s">
         <v>472</v>
       </c>
       <c r="B117" s="43">
@@ -13766,7 +13381,7 @@
       </c>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A118" s="89" t="s">
+      <c r="A118" s="79" t="s">
         <v>311</v>
       </c>
       <c r="B118" s="43">
@@ -13862,7 +13477,7 @@
       </c>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A119" s="89" t="s">
+      <c r="A119" s="79" t="s">
         <v>474</v>
       </c>
       <c r="B119" s="43">
@@ -13958,7 +13573,7 @@
       </c>
     </row>
     <row r="120" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="89" t="s">
+      <c r="A120" s="79" t="s">
         <v>475</v>
       </c>
       <c r="B120" s="43">
@@ -14054,7 +13669,7 @@
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A121" s="89" t="s">
+      <c r="A121" s="79" t="s">
         <v>476</v>
       </c>
       <c r="B121" s="43">
@@ -14104,7 +13719,7 @@
       </c>
       <c r="Q121" s="44"/>
       <c r="R121" s="44" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="S121" s="70">
         <f t="shared" si="23"/>
@@ -14152,7 +13767,7 @@
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A122" s="89" t="s">
+      <c r="A122" s="79" t="s">
         <v>314</v>
       </c>
       <c r="B122" s="43">
@@ -14248,7 +13863,7 @@
       </c>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A123" s="89" t="s">
+      <c r="A123" s="79" t="s">
         <v>480</v>
       </c>
       <c r="B123" s="43">
@@ -14344,7 +13959,7 @@
       </c>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A124" s="89" t="s">
+      <c r="A124" s="79" t="s">
         <v>318</v>
       </c>
       <c r="B124" s="43">
@@ -14440,7 +14055,7 @@
       </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A125" s="89" t="s">
+      <c r="A125" s="79" t="s">
         <v>482</v>
       </c>
       <c r="B125" s="43">
@@ -14536,7 +14151,7 @@
       </c>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A126" s="89" t="s">
+      <c r="A126" s="79" t="s">
         <v>315</v>
       </c>
       <c r="B126" s="43">
@@ -14632,7 +14247,7 @@
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A127" s="89" t="s">
+      <c r="A127" s="79" t="s">
         <v>483</v>
       </c>
       <c r="B127" s="43">
@@ -14728,7 +14343,7 @@
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A128" s="89" t="s">
+      <c r="A128" s="79" t="s">
         <v>319</v>
       </c>
       <c r="B128" s="43">
@@ -14824,7 +14439,7 @@
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A129" s="89" t="s">
+      <c r="A129" s="79" t="s">
         <v>321</v>
       </c>
       <c r="B129" s="43">
@@ -15738,7 +15353,7 @@
       </c>
       <c r="Q138" s="44"/>
       <c r="R138" s="44" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="S138" s="70">
         <f t="shared" si="23"/>
@@ -17417,10 +17032,10 @@
       </c>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A156" s="91" t="s">
+      <c r="A156" s="81" t="s">
         <v>517</v>
       </c>
-      <c r="B156" s="98">
+      <c r="B156" s="88">
         <v>4032</v>
       </c>
       <c r="C156" s="66" t="s">
@@ -17435,7 +17050,7 @@
       <c r="F156" s="78">
         <v>42549.060231481482</v>
       </c>
-      <c r="G156" s="92">
+      <c r="G156" s="82">
         <v>1</v>
       </c>
       <c r="H156" s="78" t="s">
@@ -17825,37 +17440,37 @@
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="72" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="59" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="55" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="58" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:S14 K156:M156 A13:J13 L13:S13 A15:M155 N15:S156">
-    <cfRule type="expression" dxfId="57" priority="48">
+    <cfRule type="expression" dxfId="8" priority="48">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:S14 K156:M156 A13:J13 L13:S13 A15:M155 N15:S156">
-    <cfRule type="expression" dxfId="56" priority="47">
+    <cfRule type="expression" dxfId="7" priority="47">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="54" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17900,8 +17515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17956,22 +17571,22 @@
       <c r="P4" s="55"/>
     </row>
     <row r="5" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="str">
+      <c r="A5" s="97" t="str">
         <f>"Eagle P3 Braking Events - "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Eagle P3 Braking Events - 2016-06-27</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
       <c r="N5" s="22"/>
       <c r="P5" s="53"/>
     </row>
@@ -18223,7 +17838,7 @@
         <v>134</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P10" s="54" t="str">
         <f>VLOOKUP(C10,'Train Runs'!$A$13:$V$156,22,0)</f>
@@ -18700,7 +18315,7 @@
         <v>134</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="P19" s="54" t="str">
         <f>VLOOKUP(C19,'Train Runs'!$A$13:$V$156,22,0)</f>
@@ -19684,7 +19299,7 @@
         <v>134</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" s="54" t="str">
@@ -19738,7 +19353,7 @@
         <v>134</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" s="54" t="str">
@@ -19792,7 +19407,7 @@
         <v>133</v>
       </c>
       <c r="N40" s="66" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="54" t="str">
@@ -19846,7 +19461,7 @@
         <v>133</v>
       </c>
       <c r="N41" s="66" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" s="54" t="str">
@@ -19900,7 +19515,7 @@
         <v>133</v>
       </c>
       <c r="N42" s="66" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" s="54" t="str">
@@ -22204,9 +21819,9 @@
       <c r="I89" s="52"/>
       <c r="J89" s="52"/>
       <c r="K89" s="52"/>
-      <c r="L89" s="97"/>
-      <c r="M89" s="96"/>
-      <c r="N89" s="95"/>
+      <c r="L89" s="87"/>
+      <c r="M89" s="86"/>
+      <c r="N89" s="85"/>
       <c r="P89" s="54" t="e">
         <f>VLOOKUP(C89,'Train Runs'!$A$13:$V$156,22,0)</f>
         <v>#N/A</v>
@@ -22229,8 +21844,8 @@
       <c r="J90" s="52"/>
       <c r="K90" s="52"/>
       <c r="L90" s="16"/>
-      <c r="M90" s="96"/>
-      <c r="N90" s="95"/>
+      <c r="M90" s="86"/>
+      <c r="N90" s="85"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="59"/>
@@ -22245,8 +21860,8 @@
       <c r="J91" s="52"/>
       <c r="K91" s="52"/>
       <c r="L91" s="16"/>
-      <c r="M91" s="96"/>
-      <c r="N91" s="95"/>
+      <c r="M91" s="86"/>
+      <c r="N91" s="85"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="59"/>
@@ -22261,40 +21876,40 @@
       <c r="J92" s="52"/>
       <c r="K92" s="52"/>
       <c r="L92" s="16"/>
-      <c r="M92" s="96"/>
-      <c r="N92" s="95"/>
+      <c r="M92" s="86"/>
+      <c r="N92" s="85"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="93"/>
-      <c r="B93" s="94"/>
-      <c r="C93" s="94"/>
-      <c r="D93" s="94"/>
-      <c r="E93" s="94"/>
-      <c r="F93" s="94"/>
-      <c r="G93" s="94"/>
-      <c r="H93" s="94"/>
-      <c r="I93" s="94"/>
-      <c r="J93" s="94"/>
-      <c r="K93" s="95"/>
+      <c r="A93" s="83"/>
+      <c r="B93" s="84"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="84"/>
+      <c r="H93" s="84"/>
+      <c r="I93" s="84"/>
+      <c r="J93" s="84"/>
+      <c r="K93" s="85"/>
       <c r="L93" s="16"/>
-      <c r="M93" s="96"/>
-      <c r="N93" s="95"/>
+      <c r="M93" s="86"/>
+      <c r="N93" s="85"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="93"/>
-      <c r="B94" s="94"/>
-      <c r="C94" s="94"/>
-      <c r="D94" s="94"/>
-      <c r="E94" s="94"/>
-      <c r="F94" s="94"/>
-      <c r="G94" s="94"/>
-      <c r="H94" s="94"/>
-      <c r="I94" s="94"/>
-      <c r="J94" s="94"/>
-      <c r="K94" s="95"/>
+      <c r="A94" s="83"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="84"/>
+      <c r="F94" s="84"/>
+      <c r="G94" s="84"/>
+      <c r="H94" s="84"/>
+      <c r="I94" s="84"/>
+      <c r="J94" s="84"/>
+      <c r="K94" s="85"/>
       <c r="L94" s="16"/>
-      <c r="M94" s="96"/>
-      <c r="N94" s="95"/>
+      <c r="M94" s="86"/>
+      <c r="N94" s="85"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="59"/>
@@ -22309,8 +21924,8 @@
       <c r="J95" s="52"/>
       <c r="K95" s="52"/>
       <c r="L95" s="16"/>
-      <c r="M95" s="96"/>
-      <c r="N95" s="95"/>
+      <c r="M95" s="86"/>
+      <c r="N95" s="85"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="59"/>
@@ -22325,24 +21940,24 @@
       <c r="J96" s="52"/>
       <c r="K96" s="52"/>
       <c r="L96" s="16"/>
-      <c r="M96" s="96"/>
-      <c r="N96" s="95"/>
+      <c r="M96" s="86"/>
+      <c r="N96" s="85"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="93"/>
-      <c r="B97" s="94"/>
-      <c r="C97" s="94"/>
-      <c r="D97" s="94"/>
-      <c r="E97" s="94"/>
-      <c r="F97" s="94"/>
-      <c r="G97" s="94"/>
-      <c r="H97" s="94"/>
-      <c r="I97" s="94"/>
-      <c r="J97" s="94"/>
-      <c r="K97" s="95"/>
+      <c r="A97" s="83"/>
+      <c r="B97" s="84"/>
+      <c r="C97" s="84"/>
+      <c r="D97" s="84"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="84"/>
+      <c r="G97" s="84"/>
+      <c r="H97" s="84"/>
+      <c r="I97" s="84"/>
+      <c r="J97" s="84"/>
+      <c r="K97" s="85"/>
       <c r="L97" s="16"/>
-      <c r="M97" s="96"/>
-      <c r="N97" s="95"/>
+      <c r="M97" s="86"/>
+      <c r="N97" s="85"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="59"/>
@@ -22357,40 +21972,40 @@
       <c r="J98" s="52"/>
       <c r="K98" s="52"/>
       <c r="L98" s="16"/>
-      <c r="M98" s="96"/>
-      <c r="N98" s="95"/>
+      <c r="M98" s="86"/>
+      <c r="N98" s="85"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="93"/>
-      <c r="B99" s="94"/>
-      <c r="C99" s="94"/>
-      <c r="D99" s="94"/>
-      <c r="E99" s="94"/>
-      <c r="F99" s="94"/>
-      <c r="G99" s="94"/>
-      <c r="H99" s="94"/>
-      <c r="I99" s="94"/>
-      <c r="J99" s="94"/>
-      <c r="K99" s="95"/>
+      <c r="A99" s="83"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="84"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="84"/>
+      <c r="G99" s="84"/>
+      <c r="H99" s="84"/>
+      <c r="I99" s="84"/>
+      <c r="J99" s="84"/>
+      <c r="K99" s="85"/>
       <c r="L99" s="16"/>
-      <c r="M99" s="96"/>
-      <c r="N99" s="95"/>
+      <c r="M99" s="86"/>
+      <c r="N99" s="85"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="93"/>
-      <c r="B100" s="94"/>
-      <c r="C100" s="94"/>
-      <c r="D100" s="94"/>
-      <c r="E100" s="94"/>
-      <c r="F100" s="94"/>
-      <c r="G100" s="94"/>
-      <c r="H100" s="94"/>
-      <c r="I100" s="94"/>
-      <c r="J100" s="94"/>
-      <c r="K100" s="95"/>
+      <c r="A100" s="83"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="84"/>
+      <c r="D100" s="84"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="84"/>
+      <c r="G100" s="84"/>
+      <c r="H100" s="84"/>
+      <c r="I100" s="84"/>
+      <c r="J100" s="84"/>
+      <c r="K100" s="85"/>
       <c r="L100" s="16"/>
-      <c r="M100" s="96"/>
-      <c r="N100" s="95"/>
+      <c r="M100" s="86"/>
+      <c r="N100" s="85"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="59"/>
@@ -22405,8 +22020,8 @@
       <c r="J101" s="52"/>
       <c r="K101" s="52"/>
       <c r="L101" s="16"/>
-      <c r="M101" s="96"/>
-      <c r="N101" s="95"/>
+      <c r="M101" s="86"/>
+      <c r="N101" s="85"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="59"/>
@@ -22421,8 +22036,8 @@
       <c r="J102" s="52"/>
       <c r="K102" s="52"/>
       <c r="L102" s="16"/>
-      <c r="M102" s="96"/>
-      <c r="N102" s="95"/>
+      <c r="M102" s="86"/>
+      <c r="N102" s="85"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="59"/>
@@ -22437,24 +22052,24 @@
       <c r="J103" s="52"/>
       <c r="K103" s="52"/>
       <c r="L103" s="16"/>
-      <c r="M103" s="96"/>
-      <c r="N103" s="95"/>
+      <c r="M103" s="86"/>
+      <c r="N103" s="85"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="93"/>
-      <c r="B104" s="94"/>
-      <c r="C104" s="94"/>
-      <c r="D104" s="94"/>
-      <c r="E104" s="94"/>
-      <c r="F104" s="94"/>
-      <c r="G104" s="94"/>
-      <c r="H104" s="94"/>
-      <c r="I104" s="94"/>
-      <c r="J104" s="94"/>
-      <c r="K104" s="95"/>
+      <c r="A104" s="83"/>
+      <c r="B104" s="84"/>
+      <c r="C104" s="84"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="84"/>
+      <c r="F104" s="84"/>
+      <c r="G104" s="84"/>
+      <c r="H104" s="84"/>
+      <c r="I104" s="84"/>
+      <c r="J104" s="84"/>
+      <c r="K104" s="85"/>
       <c r="L104" s="16"/>
-      <c r="M104" s="96"/>
-      <c r="N104" s="95"/>
+      <c r="M104" s="86"/>
+      <c r="N104" s="85"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="59"/>
@@ -22469,8 +22084,8 @@
       <c r="J105" s="52"/>
       <c r="K105" s="52"/>
       <c r="L105" s="16"/>
-      <c r="M105" s="96"/>
-      <c r="N105" s="95"/>
+      <c r="M105" s="86"/>
+      <c r="N105" s="85"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="59"/>
@@ -22485,8 +22100,8 @@
       <c r="J106" s="52"/>
       <c r="K106" s="52"/>
       <c r="L106" s="16"/>
-      <c r="M106" s="96"/>
-      <c r="N106" s="95"/>
+      <c r="M106" s="86"/>
+      <c r="N106" s="85"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="59"/>
@@ -22501,8 +22116,8 @@
       <c r="J107" s="52"/>
       <c r="K107" s="52"/>
       <c r="L107" s="16"/>
-      <c r="M107" s="96"/>
-      <c r="N107" s="95"/>
+      <c r="M107" s="86"/>
+      <c r="N107" s="85"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B108" s="42"/>
@@ -22712,8 +22327,8 @@
       <c r="J123" s="52"/>
       <c r="K123" s="52"/>
       <c r="L123" s="16"/>
-      <c r="M123" s="96"/>
-      <c r="N123" s="95"/>
+      <c r="M123" s="86"/>
+      <c r="N123" s="85"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B124" s="42"/>
@@ -22737,17 +22352,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="P6 M6:N6 M7:M1048576">
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N7 A8:K68 L8:L124 M8:N68">
-    <cfRule type="expression" dxfId="50" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22776,14 +22391,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="str">
+      <c r="A1" s="98" t="str">
         <f>"Trips that did not appear in PTC Data "&amp;TEXT(Variables!$A$2,"YYYY-mm-dd")</f>
         <v>Trips that did not appear in PTC Data 2016-06-27</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
     </row>
     <row r="2" spans="1:10" s="52" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">

--- a/EC/Train Runs and Enforcements 2016-06-27.xlsx
+++ b/EC/Train Runs and Enforcements 2016-06-27.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -2132,7 +2132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2374,6 +2374,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2782,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM206"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R100" sqref="R100"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,6 +3144,10 @@
       <c r="N11" s="89"/>
       <c r="O11" s="89"/>
       <c r="P11" s="89"/>
+      <c r="S11" s="99">
+        <f>AVERAGE(S13:S99999)</f>
+        <v>0.96759259259259267</v>
+      </c>
     </row>
     <row r="12" spans="1:91" s="10" customFormat="1" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
@@ -17515,7 +17520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
